--- a/biology/Botanique/Mammillaria_albiflora/Mammillaria_albiflora.xlsx
+++ b/biology/Botanique/Mammillaria_albiflora/Mammillaria_albiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria albiflora est une espèce de cactus du genre Mammillaria endémique du Mexique dans l'État de Guanajuato. Ce petit cactus a été décrit en 1931 par Erich Werdermann, puis Curt Backeberg en a fait une espèce distincte en 1937.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus croît plutôt de manière solitaire et forme rarement des groupes. Il est de forme cylindrique et peut atteindre cinq centimètres de hauteur et deux centimètres de diamètre. Ses épines blanches au nombre de soixante à quatre-vingts sont courtes et s'entrelacent. Ses fleurs blanches ou blanc-rosé mesurent jusqu'à 3,5 cm de longueur et 2,5 cm de diamètre.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est classée dans la liste rouge des espèces en danger par l'IUCN et considérée comme « en danger critique d'extinction »[1]. Son habitat naturel est une zone de 5 km2 au sud de Pozos.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est classée dans la liste rouge des espèces en danger par l'IUCN et considérée comme « en danger critique d'extinction ». Son habitat naturel est une zone de 5 km2 au sud de Pozos.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mammillaria herrerae var. albiflora Werderm. (1931)
 Escobariopsis albiflora (Werderm.) Doweld (2000).</t>
